--- a/data/pca/factorExposure/factorExposure_2011-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01094725747286835</v>
+        <v>0.01143095695941288</v>
       </c>
       <c r="C2">
-        <v>-0.02996680299456242</v>
+        <v>0.0244490879611465</v>
       </c>
       <c r="D2">
-        <v>-0.02157585999163328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02421415332557676</v>
+      </c>
+      <c r="E2">
+        <v>0.007390864694982067</v>
+      </c>
+      <c r="F2">
+        <v>-0.02626597674233103</v>
+      </c>
+      <c r="G2">
+        <v>-5.728785701587915e-06</v>
+      </c>
+      <c r="H2">
+        <v>0.0275610251990739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07529044240214346</v>
+        <v>0.08804455741334137</v>
       </c>
       <c r="C4">
-        <v>-0.04996403513149991</v>
+        <v>0.03342766725511034</v>
       </c>
       <c r="D4">
-        <v>-0.08105715670942315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07005116106185248</v>
+      </c>
+      <c r="E4">
+        <v>0.006482443151165593</v>
+      </c>
+      <c r="F4">
+        <v>-0.04199490666786596</v>
+      </c>
+      <c r="G4">
+        <v>-0.01212890750517392</v>
+      </c>
+      <c r="H4">
+        <v>-0.03860546715544323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1105692237925363</v>
+        <v>0.1233612389619034</v>
       </c>
       <c r="C6">
-        <v>-0.04734756915077409</v>
+        <v>0.0331365428820517</v>
       </c>
       <c r="D6">
-        <v>-0.009223279256591813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01156141298323441</v>
+      </c>
+      <c r="E6">
+        <v>-0.02455020380710083</v>
+      </c>
+      <c r="F6">
+        <v>-0.05395207331708176</v>
+      </c>
+      <c r="G6">
+        <v>-0.03291279578094632</v>
+      </c>
+      <c r="H6">
+        <v>0.111723051847728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05504935523035632</v>
+        <v>0.06411116743046394</v>
       </c>
       <c r="C7">
-        <v>-0.02654518433212504</v>
+        <v>0.01206801600091604</v>
       </c>
       <c r="D7">
-        <v>-0.03469879246619635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05100838837335155</v>
+      </c>
+      <c r="E7">
+        <v>0.03119031948068486</v>
+      </c>
+      <c r="F7">
+        <v>-0.04143960489041059</v>
+      </c>
+      <c r="G7">
+        <v>0.03126968993659721</v>
+      </c>
+      <c r="H7">
+        <v>-0.01033061942285786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04058823285414861</v>
+        <v>0.04331869640312692</v>
       </c>
       <c r="C8">
-        <v>-0.01403206183984801</v>
+        <v>0.009887358825416255</v>
       </c>
       <c r="D8">
-        <v>-0.05848500856083135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02358540118383514</v>
+      </c>
+      <c r="E8">
+        <v>0.0129853556026585</v>
+      </c>
+      <c r="F8">
+        <v>-0.05989746649670791</v>
+      </c>
+      <c r="G8">
+        <v>-0.0528106548342544</v>
+      </c>
+      <c r="H8">
+        <v>0.01721630508641595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07146500140422229</v>
+        <v>0.08093747662207745</v>
       </c>
       <c r="C9">
-        <v>-0.03839647772664032</v>
+        <v>0.02275667686672182</v>
       </c>
       <c r="D9">
-        <v>-0.07080423530068097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06287750425908861</v>
+      </c>
+      <c r="E9">
+        <v>0.02342458290762387</v>
+      </c>
+      <c r="F9">
+        <v>-0.03546747313025141</v>
+      </c>
+      <c r="G9">
+        <v>-0.02153790231526282</v>
+      </c>
+      <c r="H9">
+        <v>-0.0452174114997057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03122054193250911</v>
+        <v>0.04552418952312879</v>
       </c>
       <c r="C10">
-        <v>-0.03201680119986946</v>
+        <v>0.06225156842178577</v>
       </c>
       <c r="D10">
-        <v>0.1771583605181946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.174840689745952</v>
+      </c>
+      <c r="E10">
+        <v>0.04124886225839378</v>
+      </c>
+      <c r="F10">
+        <v>-0.0488115728680041</v>
+      </c>
+      <c r="G10">
+        <v>0.03478183562893619</v>
+      </c>
+      <c r="H10">
+        <v>0.05481148642918779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07188953705688417</v>
+        <v>0.07618010867674031</v>
       </c>
       <c r="C11">
-        <v>-0.04124601737094908</v>
+        <v>0.01948204588556941</v>
       </c>
       <c r="D11">
-        <v>-0.05401091998705571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06562067243257738</v>
+      </c>
+      <c r="E11">
+        <v>-0.00641426499624946</v>
+      </c>
+      <c r="F11">
+        <v>-0.03208066507957769</v>
+      </c>
+      <c r="G11">
+        <v>-0.03104948042028198</v>
+      </c>
+      <c r="H11">
+        <v>-0.06898155115935785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06109123365430012</v>
+        <v>0.06991473234565071</v>
       </c>
       <c r="C12">
-        <v>-0.04979024893969024</v>
+        <v>0.03154503245647095</v>
       </c>
       <c r="D12">
-        <v>-0.0454677858278375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05086458109638115</v>
+      </c>
+      <c r="E12">
+        <v>0.009727448241826201</v>
+      </c>
+      <c r="F12">
+        <v>-0.02464115873400509</v>
+      </c>
+      <c r="G12">
+        <v>-0.01685577724102896</v>
+      </c>
+      <c r="H12">
+        <v>-0.03168849125553743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06853430972199129</v>
+        <v>0.06769259487376422</v>
       </c>
       <c r="C13">
-        <v>-0.03349847331690271</v>
+        <v>0.01621118970795659</v>
       </c>
       <c r="D13">
-        <v>-0.04204243350977145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03950447389513523</v>
+      </c>
+      <c r="E13">
+        <v>0.009725970504714019</v>
+      </c>
+      <c r="F13">
+        <v>-0.02674058919908647</v>
+      </c>
+      <c r="G13">
+        <v>-0.004362068577760017</v>
+      </c>
+      <c r="H13">
+        <v>-0.05406867669551618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03386322887709085</v>
+        <v>0.04037357452374517</v>
       </c>
       <c r="C14">
-        <v>-0.03200566711181568</v>
+        <v>0.02624892411601002</v>
       </c>
       <c r="D14">
-        <v>0.008477373428063545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01358201049516026</v>
+      </c>
+      <c r="E14">
+        <v>0.02606328450884166</v>
+      </c>
+      <c r="F14">
+        <v>-0.0211166121241834</v>
+      </c>
+      <c r="G14">
+        <v>-0.02464573516872424</v>
+      </c>
+      <c r="H14">
+        <v>-0.04970822159521063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04257737406309766</v>
+        <v>0.04133109920247759</v>
       </c>
       <c r="C15">
-        <v>-0.008330209247713218</v>
+        <v>0.001529053506850954</v>
       </c>
       <c r="D15">
-        <v>-0.01921700978642027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00687149123269172</v>
+      </c>
+      <c r="E15">
+        <v>0.03552750271444281</v>
+      </c>
+      <c r="F15">
+        <v>-0.005286514712070044</v>
+      </c>
+      <c r="G15">
+        <v>-0.03333782733431308</v>
+      </c>
+      <c r="H15">
+        <v>-0.02379491969354463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06102745345229457</v>
+        <v>0.07156171279996493</v>
       </c>
       <c r="C16">
-        <v>-0.03836080079832404</v>
+        <v>0.0218860394723731</v>
       </c>
       <c r="D16">
-        <v>-0.05048565191860114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0630235572137286</v>
+      </c>
+      <c r="E16">
+        <v>0.004071295387799304</v>
+      </c>
+      <c r="F16">
+        <v>-0.0312945706644966</v>
+      </c>
+      <c r="G16">
+        <v>-0.01535893528992028</v>
+      </c>
+      <c r="H16">
+        <v>-0.04949308424933916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06389164588944252</v>
+        <v>0.06251649116240914</v>
       </c>
       <c r="C20">
-        <v>-0.02392317978197917</v>
+        <v>0.006018886795536481</v>
       </c>
       <c r="D20">
-        <v>-0.0479321523967499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04103778178560301</v>
+      </c>
+      <c r="E20">
+        <v>0.009097442093490169</v>
+      </c>
+      <c r="F20">
+        <v>-0.03130557388936805</v>
+      </c>
+      <c r="G20">
+        <v>-0.02528137216026028</v>
+      </c>
+      <c r="H20">
+        <v>-0.04505362076040965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02882318469358078</v>
+        <v>0.02773656463128281</v>
       </c>
       <c r="C21">
-        <v>0.00144965049060937</v>
+        <v>-0.00998555129298982</v>
       </c>
       <c r="D21">
-        <v>-0.01980538597213811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02135747137431119</v>
+      </c>
+      <c r="E21">
+        <v>0.03932591949127966</v>
+      </c>
+      <c r="F21">
+        <v>0.009873418473627684</v>
+      </c>
+      <c r="G21">
+        <v>-0.01026873806756933</v>
+      </c>
+      <c r="H21">
+        <v>0.05295820584055808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08063730758163358</v>
+        <v>0.07161523069733641</v>
       </c>
       <c r="C22">
-        <v>-0.05951379024074333</v>
+        <v>0.03112499874477425</v>
       </c>
       <c r="D22">
-        <v>-0.1421566367392372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1036211392583743</v>
+      </c>
+      <c r="E22">
+        <v>0.6134928835468121</v>
+      </c>
+      <c r="F22">
+        <v>0.07127803434817274</v>
+      </c>
+      <c r="G22">
+        <v>0.1433130240777154</v>
+      </c>
+      <c r="H22">
+        <v>0.146645708131125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08163970119976639</v>
+        <v>0.0725237484106226</v>
       </c>
       <c r="C23">
-        <v>-0.05819560905393715</v>
+        <v>0.02977918062471762</v>
       </c>
       <c r="D23">
-        <v>-0.1432962057714077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1046387009042961</v>
+      </c>
+      <c r="E23">
+        <v>0.6155570131212879</v>
+      </c>
+      <c r="F23">
+        <v>0.07049043468597935</v>
+      </c>
+      <c r="G23">
+        <v>0.1383125483257713</v>
+      </c>
+      <c r="H23">
+        <v>0.141869015516783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07682416812419185</v>
+        <v>0.08142461389361881</v>
       </c>
       <c r="C24">
-        <v>-0.04985760396431457</v>
+        <v>0.02761917758700938</v>
       </c>
       <c r="D24">
-        <v>-0.05911822052497281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06355121308375292</v>
+      </c>
+      <c r="E24">
+        <v>0.009079316602388381</v>
+      </c>
+      <c r="F24">
+        <v>-0.04117817634686721</v>
+      </c>
+      <c r="G24">
+        <v>-0.02716615535657007</v>
+      </c>
+      <c r="H24">
+        <v>-0.03479183560335536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07529789881605393</v>
+        <v>0.08016883869495489</v>
       </c>
       <c r="C25">
-        <v>-0.0520288008460981</v>
+        <v>0.03161472666613785</v>
       </c>
       <c r="D25">
-        <v>-0.0603276016385105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05201934388432421</v>
+      </c>
+      <c r="E25">
+        <v>0.01672952484545975</v>
+      </c>
+      <c r="F25">
+        <v>-0.03757254200145756</v>
+      </c>
+      <c r="G25">
+        <v>-0.03846674866525616</v>
+      </c>
+      <c r="H25">
+        <v>-0.04189822003211871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04626919532591953</v>
+        <v>0.04605931911926092</v>
       </c>
       <c r="C26">
-        <v>-0.009229581589050762</v>
+        <v>-0.0008504326405290488</v>
       </c>
       <c r="D26">
-        <v>-0.01302492307371563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01983082174373281</v>
+      </c>
+      <c r="E26">
+        <v>0.03880728998184833</v>
+      </c>
+      <c r="F26">
+        <v>-0.04004807971585732</v>
+      </c>
+      <c r="G26">
+        <v>-0.008966511130323101</v>
+      </c>
+      <c r="H26">
+        <v>-0.04302502077460098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04872488221073724</v>
+        <v>0.07033117462270456</v>
       </c>
       <c r="C28">
-        <v>-0.07437031544119085</v>
+        <v>0.1174800234878217</v>
       </c>
       <c r="D28">
-        <v>0.3017662620612416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2946465429538235</v>
+      </c>
+      <c r="E28">
+        <v>0.03601852088125461</v>
+      </c>
+      <c r="F28">
+        <v>-0.06177849306072743</v>
+      </c>
+      <c r="G28">
+        <v>-0.02072266026037904</v>
+      </c>
+      <c r="H28">
+        <v>0.04903219517907437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04567071989667961</v>
+        <v>0.04788357088130256</v>
       </c>
       <c r="C29">
-        <v>-0.02964554677223398</v>
+        <v>0.02149652849393601</v>
       </c>
       <c r="D29">
-        <v>-0.00214763465952581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0119324170053681</v>
+      </c>
+      <c r="E29">
+        <v>0.05565594833075053</v>
+      </c>
+      <c r="F29">
+        <v>-0.01785979141564119</v>
+      </c>
+      <c r="G29">
+        <v>-0.01640229945983713</v>
+      </c>
+      <c r="H29">
+        <v>-0.06318695035243078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1295090526577464</v>
+        <v>0.1263438641383562</v>
       </c>
       <c r="C30">
-        <v>-0.08451572948414353</v>
+        <v>0.05178306836950122</v>
       </c>
       <c r="D30">
-        <v>-0.1152489339856824</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0831722932540705</v>
+      </c>
+      <c r="E30">
+        <v>0.05962850432890222</v>
+      </c>
+      <c r="F30">
+        <v>-0.01584711396689348</v>
+      </c>
+      <c r="G30">
+        <v>-0.07606671998526669</v>
+      </c>
+      <c r="H30">
+        <v>0.02787487237211174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04860807735096918</v>
+        <v>0.04952460829146427</v>
       </c>
       <c r="C31">
-        <v>-0.02232687191059364</v>
+        <v>0.009032451702913254</v>
       </c>
       <c r="D31">
-        <v>-0.02046016796086961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03462527837180873</v>
+      </c>
+      <c r="E31">
+        <v>0.0233375094514469</v>
+      </c>
+      <c r="F31">
+        <v>-0.009425170391613049</v>
+      </c>
+      <c r="G31">
+        <v>0.003547271443087221</v>
+      </c>
+      <c r="H31">
+        <v>-0.07004890435426141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03728414074311984</v>
+        <v>0.04029757756463151</v>
       </c>
       <c r="C32">
-        <v>-0.0242189647805757</v>
+        <v>0.02292685545552512</v>
       </c>
       <c r="D32">
-        <v>-0.02560395179378096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0093784805151934</v>
+      </c>
+      <c r="E32">
+        <v>0.05379596212904178</v>
+      </c>
+      <c r="F32">
+        <v>0.003005932939777688</v>
+      </c>
+      <c r="G32">
+        <v>-0.03509760084889209</v>
+      </c>
+      <c r="H32">
+        <v>-0.03183684823015943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08636339486515843</v>
+        <v>0.09487263909874236</v>
       </c>
       <c r="C33">
-        <v>-0.0392443504294182</v>
+        <v>0.01879354237942072</v>
       </c>
       <c r="D33">
-        <v>-0.05179201131008182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04872568605616784</v>
+      </c>
+      <c r="E33">
+        <v>0.01322913125938653</v>
+      </c>
+      <c r="F33">
+        <v>-0.008826061094089441</v>
+      </c>
+      <c r="G33">
+        <v>-0.01329493247877681</v>
+      </c>
+      <c r="H33">
+        <v>-0.06258921476037532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0593276899816592</v>
+        <v>0.06417638887929925</v>
       </c>
       <c r="C34">
-        <v>-0.02371758944080124</v>
+        <v>0.006924767254127926</v>
       </c>
       <c r="D34">
-        <v>-0.05153950044266187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04979416943844035</v>
+      </c>
+      <c r="E34">
+        <v>0.006364902623516261</v>
+      </c>
+      <c r="F34">
+        <v>-0.02597548521590581</v>
+      </c>
+      <c r="G34">
+        <v>-0.018636833005204</v>
+      </c>
+      <c r="H34">
+        <v>-0.0504241196369225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03690136086208935</v>
+        <v>0.03829598984086387</v>
       </c>
       <c r="C35">
-        <v>-0.007119927610940358</v>
+        <v>0.0009448653201563518</v>
       </c>
       <c r="D35">
-        <v>-0.02053573261026172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01572790011205552</v>
+      </c>
+      <c r="E35">
+        <v>0.02021714914949348</v>
+      </c>
+      <c r="F35">
+        <v>0.01550724374652211</v>
+      </c>
+      <c r="G35">
+        <v>-0.0027998596138651</v>
+      </c>
+      <c r="H35">
+        <v>-0.02366393768206556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02502843593950723</v>
+        <v>0.02923077440774497</v>
       </c>
       <c r="C36">
-        <v>-0.01796438526672358</v>
+        <v>0.01332478924893317</v>
       </c>
       <c r="D36">
-        <v>-0.02017140477143716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01799645609356073</v>
+      </c>
+      <c r="E36">
+        <v>0.0285776470551353</v>
+      </c>
+      <c r="F36">
+        <v>-0.03278232942814237</v>
+      </c>
+      <c r="G36">
+        <v>-0.00438648554112653</v>
+      </c>
+      <c r="H36">
+        <v>-0.04512427354473236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04533834564071947</v>
+        <v>0.04661746550571747</v>
       </c>
       <c r="C38">
-        <v>-0.002698136565694666</v>
+        <v>-0.004868770713612473</v>
       </c>
       <c r="D38">
-        <v>-0.01646861506246081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01809740325438954</v>
+      </c>
+      <c r="E38">
+        <v>0.0510245664988059</v>
+      </c>
+      <c r="F38">
+        <v>-0.001557512944324335</v>
+      </c>
+      <c r="G38">
+        <v>-0.0045786345371657</v>
+      </c>
+      <c r="H38">
+        <v>-0.02403350430670909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09000908652747266</v>
+        <v>0.09903632611634096</v>
       </c>
       <c r="C39">
-        <v>-0.06625728420373612</v>
+        <v>0.04288148180884982</v>
       </c>
       <c r="D39">
-        <v>-0.06184899724250499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07067445104238797</v>
+      </c>
+      <c r="E39">
+        <v>0.0003814067331576295</v>
+      </c>
+      <c r="F39">
+        <v>-0.0003156843183591804</v>
+      </c>
+      <c r="G39">
+        <v>-0.04964297373664811</v>
+      </c>
+      <c r="H39">
+        <v>-0.03057741539071911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08127685070998013</v>
+        <v>0.06343441810416368</v>
       </c>
       <c r="C40">
-        <v>-0.03372976332946058</v>
+        <v>0.003355874171738463</v>
       </c>
       <c r="D40">
-        <v>-0.01222574776153766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03235103628100956</v>
+      </c>
+      <c r="E40">
+        <v>0.03602775508245065</v>
+      </c>
+      <c r="F40">
+        <v>0.03910166386620245</v>
+      </c>
+      <c r="G40">
+        <v>-0.02426545823512204</v>
+      </c>
+      <c r="H40">
+        <v>0.08200187416592152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04513599035647977</v>
+        <v>0.04640407308525166</v>
       </c>
       <c r="C41">
-        <v>-0.00396662726311332</v>
+        <v>-0.007054057881287903</v>
       </c>
       <c r="D41">
-        <v>-0.03820003023687627</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03201275636822988</v>
+      </c>
+      <c r="E41">
+        <v>0.002643281969756373</v>
+      </c>
+      <c r="F41">
+        <v>0.01150053975373872</v>
+      </c>
+      <c r="G41">
+        <v>-0.0163957925206143</v>
+      </c>
+      <c r="H41">
+        <v>-0.02030825366685383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05413303584510199</v>
+        <v>0.06075073629419669</v>
       </c>
       <c r="C43">
-        <v>-0.02484905441816671</v>
+        <v>0.01381001659614</v>
       </c>
       <c r="D43">
-        <v>-0.01370112001802669</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02838455392174543</v>
+      </c>
+      <c r="E43">
+        <v>0.02155327668170932</v>
+      </c>
+      <c r="F43">
+        <v>-0.01831268146475122</v>
+      </c>
+      <c r="G43">
+        <v>0.005972338611080192</v>
+      </c>
+      <c r="H43">
+        <v>-0.06014992296183006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09674315329933968</v>
+        <v>0.09433765403002711</v>
       </c>
       <c r="C44">
-        <v>-0.08063744103350552</v>
+        <v>0.05060684607510693</v>
       </c>
       <c r="D44">
-        <v>-0.07684153095280144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07270892554018793</v>
+      </c>
+      <c r="E44">
+        <v>0.05872131943146841</v>
+      </c>
+      <c r="F44">
+        <v>-0.09884272224840318</v>
+      </c>
+      <c r="G44">
+        <v>-0.0436519750120466</v>
+      </c>
+      <c r="H44">
+        <v>-0.087657340152102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02805949864677912</v>
+        <v>0.03578218575434505</v>
       </c>
       <c r="C46">
-        <v>-0.01472980293596811</v>
+        <v>0.008595215136214498</v>
       </c>
       <c r="D46">
-        <v>-0.03235376178541607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03648607311931747</v>
+      </c>
+      <c r="E46">
+        <v>0.03107294691897387</v>
+      </c>
+      <c r="F46">
+        <v>-0.01432539220586138</v>
+      </c>
+      <c r="G46">
+        <v>-0.00716476911981539</v>
+      </c>
+      <c r="H46">
+        <v>-0.01676875537403033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03576027970405191</v>
+        <v>0.04180910442335603</v>
       </c>
       <c r="C47">
-        <v>-0.02395841892548925</v>
+        <v>0.01846926517936139</v>
       </c>
       <c r="D47">
-        <v>-2.282844494612992e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007204097362569734</v>
+      </c>
+      <c r="E47">
+        <v>0.03906953279691456</v>
+      </c>
+      <c r="F47">
+        <v>0.007961282808319028</v>
+      </c>
+      <c r="G47">
+        <v>0.02485185311526057</v>
+      </c>
+      <c r="H47">
+        <v>-0.0280396262206757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03681306196261276</v>
+        <v>0.03995763132207137</v>
       </c>
       <c r="C48">
-        <v>-0.01854201638299462</v>
+        <v>0.01000663641540661</v>
       </c>
       <c r="D48">
-        <v>-0.03125562826056166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02072883871768901</v>
+      </c>
+      <c r="E48">
+        <v>0.03754748716742425</v>
+      </c>
+      <c r="F48">
+        <v>-0.01427398743850232</v>
+      </c>
+      <c r="G48">
+        <v>-0.02291807550145682</v>
+      </c>
+      <c r="H48">
+        <v>-0.02492418078519276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1640018479728671</v>
+        <v>0.1987087963631363</v>
       </c>
       <c r="C49">
-        <v>-0.04622524445909996</v>
+        <v>0.0285801025593875</v>
       </c>
       <c r="D49">
-        <v>-0.006427282936135589</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02630668372045493</v>
+      </c>
+      <c r="E49">
+        <v>-0.1685569861832979</v>
+      </c>
+      <c r="F49">
+        <v>-0.03284936732192421</v>
+      </c>
+      <c r="G49">
+        <v>0.1397017357651618</v>
+      </c>
+      <c r="H49">
+        <v>0.2478391442549917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04313907752870796</v>
+        <v>0.04609520022177806</v>
       </c>
       <c r="C50">
-        <v>-0.02057741925225928</v>
+        <v>0.00953253433530093</v>
       </c>
       <c r="D50">
-        <v>-0.03911275995682928</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03927923182201026</v>
+      </c>
+      <c r="E50">
+        <v>0.03509616407543371</v>
+      </c>
+      <c r="F50">
+        <v>-0.009912204985535881</v>
+      </c>
+      <c r="G50">
+        <v>-0.002340313494703632</v>
+      </c>
+      <c r="H50">
+        <v>-0.07519134710171642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02970537633717205</v>
+        <v>0.03500295021708303</v>
       </c>
       <c r="C51">
-        <v>-0.01038098417727921</v>
+        <v>0.00580255437648017</v>
       </c>
       <c r="D51">
-        <v>-0.0001340607562118079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001911927888364521</v>
+      </c>
+      <c r="E51">
+        <v>0.01138128368988119</v>
+      </c>
+      <c r="F51">
+        <v>-0.01079548187401353</v>
+      </c>
+      <c r="G51">
+        <v>0.0128630967071503</v>
+      </c>
+      <c r="H51">
+        <v>0.01574364589141617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1555900696476437</v>
+        <v>0.1600083313771596</v>
       </c>
       <c r="C53">
-        <v>-0.07077484897218968</v>
+        <v>0.04232859327213727</v>
       </c>
       <c r="D53">
-        <v>0.001529811305252474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02798592641101702</v>
+      </c>
+      <c r="E53">
+        <v>-0.03171488138833289</v>
+      </c>
+      <c r="F53">
+        <v>-0.0008746672866654589</v>
+      </c>
+      <c r="G53">
+        <v>-0.01793914648242602</v>
+      </c>
+      <c r="H53">
+        <v>-0.2010903960052481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05747119289361384</v>
+        <v>0.05823266528007974</v>
       </c>
       <c r="C54">
-        <v>-0.01961833606441162</v>
+        <v>0.009960351451593899</v>
       </c>
       <c r="D54">
-        <v>-0.01907813009673106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01514230010841907</v>
+      </c>
+      <c r="E54">
+        <v>0.05047377931161294</v>
+      </c>
+      <c r="F54">
+        <v>-0.017449003566952</v>
+      </c>
+      <c r="G54">
+        <v>-0.04936089410051837</v>
+      </c>
+      <c r="H54">
+        <v>-0.03619153434496054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1029807234992369</v>
+        <v>0.1041101513514837</v>
       </c>
       <c r="C55">
-        <v>-0.04984612421104578</v>
+        <v>0.02917371339679571</v>
       </c>
       <c r="D55">
-        <v>-0.01899484808483615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03081351301491567</v>
+      </c>
+      <c r="E55">
+        <v>0.0009794962179645787</v>
+      </c>
+      <c r="F55">
+        <v>-0.01616830802935948</v>
+      </c>
+      <c r="G55">
+        <v>-0.02325396248449313</v>
+      </c>
+      <c r="H55">
+        <v>-0.1589324759091721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1523425274769375</v>
+        <v>0.1582635448597483</v>
       </c>
       <c r="C56">
-        <v>-0.08132295686555992</v>
+        <v>0.04943115055965292</v>
       </c>
       <c r="D56">
-        <v>-0.002456419951750919</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04108583917487132</v>
+      </c>
+      <c r="E56">
+        <v>-0.01590427815736736</v>
+      </c>
+      <c r="F56">
+        <v>-0.02401467851408965</v>
+      </c>
+      <c r="G56">
+        <v>-0.01565744503575743</v>
+      </c>
+      <c r="H56">
+        <v>-0.2014393640732255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1330218749441493</v>
+        <v>0.1001029169429567</v>
       </c>
       <c r="C58">
-        <v>0.009481236660307701</v>
+        <v>-0.05086660514915826</v>
       </c>
       <c r="D58">
-        <v>-0.04284681141760315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03109339410447581</v>
+      </c>
+      <c r="E58">
+        <v>0.1250151802770706</v>
+      </c>
+      <c r="F58">
+        <v>-0.0140141751275769</v>
+      </c>
+      <c r="G58">
+        <v>0.09201109388064967</v>
+      </c>
+      <c r="H58">
+        <v>0.1497869112941671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1230782268179259</v>
+        <v>0.1467932549466475</v>
       </c>
       <c r="C59">
-        <v>-0.08206655753906617</v>
+        <v>0.1218616575593417</v>
       </c>
       <c r="D59">
-        <v>0.3912435296326398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3507331134732456</v>
+      </c>
+      <c r="E59">
+        <v>0.03307719464826848</v>
+      </c>
+      <c r="F59">
+        <v>-0.004881108914698975</v>
+      </c>
+      <c r="G59">
+        <v>0.01114716386218482</v>
+      </c>
+      <c r="H59">
+        <v>-0.01287643911526337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.210414729912364</v>
+        <v>0.2391544483652926</v>
       </c>
       <c r="C60">
-        <v>-0.08706209470110614</v>
+        <v>0.05375104094525752</v>
       </c>
       <c r="D60">
-        <v>-0.01718638862493146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04641445742918247</v>
+      </c>
+      <c r="E60">
+        <v>-0.1152782434080209</v>
+      </c>
+      <c r="F60">
+        <v>-0.04333105556163859</v>
+      </c>
+      <c r="G60">
+        <v>0.02309583203073694</v>
+      </c>
+      <c r="H60">
+        <v>0.1440936336945477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0811112105838403</v>
+        <v>0.08666947185034268</v>
       </c>
       <c r="C61">
-        <v>-0.04482606585153621</v>
+        <v>0.0270548237416617</v>
       </c>
       <c r="D61">
-        <v>-0.03446314955584957</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04458500047647108</v>
+      </c>
+      <c r="E61">
+        <v>0.005089495737774078</v>
+      </c>
+      <c r="F61">
+        <v>-0.005905424688288263</v>
+      </c>
+      <c r="G61">
+        <v>-0.02350337623834757</v>
+      </c>
+      <c r="H61">
+        <v>-0.06269337349480089</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1337243427501187</v>
+        <v>0.1369297394902818</v>
       </c>
       <c r="C62">
-        <v>-0.05438928585404539</v>
+        <v>0.02446439840205591</v>
       </c>
       <c r="D62">
-        <v>-0.007850437696632758</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04451001741109814</v>
+      </c>
+      <c r="E62">
+        <v>-0.05262676860199162</v>
+      </c>
+      <c r="F62">
+        <v>-0.000285499731928155</v>
+      </c>
+      <c r="G62">
+        <v>-0.06222185337102869</v>
+      </c>
+      <c r="H62">
+        <v>-0.2027522953137181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05289981523741376</v>
+        <v>0.05248397674252342</v>
       </c>
       <c r="C63">
-        <v>-0.0225525983212757</v>
+        <v>0.01260289325648205</v>
       </c>
       <c r="D63">
-        <v>-0.02477553956765313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02001470467499896</v>
+      </c>
+      <c r="E63">
+        <v>0.04156471253443159</v>
+      </c>
+      <c r="F63">
+        <v>0.0001731893511050581</v>
+      </c>
+      <c r="G63">
+        <v>-0.02760901699579213</v>
+      </c>
+      <c r="H63">
+        <v>-0.0303739385806843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1049934924808704</v>
+        <v>0.1089384835000455</v>
       </c>
       <c r="C64">
-        <v>-0.02749099601337331</v>
+        <v>0.01049661574589113</v>
       </c>
       <c r="D64">
-        <v>-0.02715493910354317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02826278066604459</v>
+      </c>
+      <c r="E64">
+        <v>0.03226834655695669</v>
+      </c>
+      <c r="F64">
+        <v>-0.04596274280094406</v>
+      </c>
+      <c r="G64">
+        <v>-0.0569985777602988</v>
+      </c>
+      <c r="H64">
+        <v>-0.02018202080830447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1275763953939304</v>
+        <v>0.1285154325321389</v>
       </c>
       <c r="C65">
-        <v>-0.05506261941441828</v>
+        <v>0.03725634927332497</v>
       </c>
       <c r="D65">
-        <v>-0.01393996187985469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01409901023948692</v>
+      </c>
+      <c r="E65">
+        <v>-0.005879117839905361</v>
+      </c>
+      <c r="F65">
+        <v>-0.04044005012966304</v>
+      </c>
+      <c r="G65">
+        <v>-0.0637782169460555</v>
+      </c>
+      <c r="H65">
+        <v>0.1322940585292845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1492196327678753</v>
+        <v>0.1514775185447755</v>
       </c>
       <c r="C66">
-        <v>-0.06543560613665791</v>
+        <v>0.02881701685432767</v>
       </c>
       <c r="D66">
-        <v>-0.09834238826646075</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1028086725115714</v>
+      </c>
+      <c r="E66">
+        <v>-0.02542565230673057</v>
+      </c>
+      <c r="F66">
+        <v>-0.001275464484012937</v>
+      </c>
+      <c r="G66">
+        <v>-0.06650013861338158</v>
+      </c>
+      <c r="H66">
+        <v>-0.09273805959974189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07638018669247229</v>
+        <v>0.0859923659472026</v>
       </c>
       <c r="C67">
-        <v>-0.008300569024428278</v>
+        <v>-0.003210466102864907</v>
       </c>
       <c r="D67">
-        <v>-0.02287464734286204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03156541536650739</v>
+      </c>
+      <c r="E67">
+        <v>0.02130438215052819</v>
+      </c>
+      <c r="F67">
+        <v>-0.01646016355177838</v>
+      </c>
+      <c r="G67">
+        <v>0.009251078368529142</v>
+      </c>
+      <c r="H67">
+        <v>-0.0220813319585724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05700204297114705</v>
+        <v>0.06427513034790941</v>
       </c>
       <c r="C68">
-        <v>-0.05337939522773812</v>
+        <v>0.08919157169457248</v>
       </c>
       <c r="D68">
-        <v>0.2570586030065234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.261112673377826</v>
+      </c>
+      <c r="E68">
+        <v>0.04591280391447814</v>
+      </c>
+      <c r="F68">
+        <v>-0.01904753215318736</v>
+      </c>
+      <c r="G68">
+        <v>0.006514092179348446</v>
+      </c>
+      <c r="H68">
+        <v>-0.02090478290422082</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05391746237636251</v>
+        <v>0.05268259664521219</v>
       </c>
       <c r="C69">
-        <v>-0.01505107717979483</v>
+        <v>0.00221016433345928</v>
       </c>
       <c r="D69">
-        <v>-0.02601343529777011</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0206134356569053</v>
+      </c>
+      <c r="E69">
+        <v>0.02365517033059945</v>
+      </c>
+      <c r="F69">
+        <v>0.01209795382404251</v>
+      </c>
+      <c r="G69">
+        <v>-0.0008741511638958246</v>
+      </c>
+      <c r="H69">
+        <v>-0.0485232143398106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002802194747010787</v>
+        <v>0.02803407259000833</v>
       </c>
       <c r="C70">
-        <v>0.005502440608224642</v>
+        <v>-0.001417544317880279</v>
       </c>
       <c r="D70">
-        <v>0.01352923861250452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.008311213709564174</v>
+      </c>
+      <c r="E70">
+        <v>-0.02189004818638218</v>
+      </c>
+      <c r="F70">
+        <v>0.008503447398514743</v>
+      </c>
+      <c r="G70">
+        <v>0.02662262806125028</v>
+      </c>
+      <c r="H70">
+        <v>0.03961890097792896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05609365902279886</v>
+        <v>0.06945374459358296</v>
       </c>
       <c r="C71">
-        <v>-0.05295417060053134</v>
+        <v>0.0978344819645747</v>
       </c>
       <c r="D71">
-        <v>0.292387826038033</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2888787905558216</v>
+      </c>
+      <c r="E71">
+        <v>0.04271907943897961</v>
+      </c>
+      <c r="F71">
+        <v>-0.04680126286501315</v>
+      </c>
+      <c r="G71">
+        <v>0.0001425436991822259</v>
+      </c>
+      <c r="H71">
+        <v>-0.01166900825527382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1432281449197928</v>
+        <v>0.1445051273761383</v>
       </c>
       <c r="C72">
-        <v>-0.0563499693334246</v>
+        <v>0.02892962702597604</v>
       </c>
       <c r="D72">
-        <v>0.001095268280443283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004379325161165915</v>
+      </c>
+      <c r="E72">
+        <v>-0.05559980140954157</v>
+      </c>
+      <c r="F72">
+        <v>0.1500315600074487</v>
+      </c>
+      <c r="G72">
+        <v>-0.120355616845521</v>
+      </c>
+      <c r="H72">
+        <v>0.0005354738043060539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.28826251464106</v>
+        <v>0.2897349967295952</v>
       </c>
       <c r="C73">
-        <v>-0.08813177071738561</v>
+        <v>0.01941607356055737</v>
       </c>
       <c r="D73">
-        <v>-0.04162832002650253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09595649312750294</v>
+      </c>
+      <c r="E73">
+        <v>-0.2512508775687186</v>
+      </c>
+      <c r="F73">
+        <v>-0.06292913532937748</v>
+      </c>
+      <c r="G73">
+        <v>0.2602608389842187</v>
+      </c>
+      <c r="H73">
+        <v>0.4088380934893784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08470005436629756</v>
+        <v>0.09256628997064277</v>
       </c>
       <c r="C74">
-        <v>-0.07406285767914852</v>
+        <v>0.05346851135386753</v>
       </c>
       <c r="D74">
-        <v>-0.006496158632765662</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03967750032751889</v>
+      </c>
+      <c r="E74">
+        <v>-0.004725937096589217</v>
+      </c>
+      <c r="F74">
+        <v>0.001956066383334806</v>
+      </c>
+      <c r="G74">
+        <v>0.02244674859414738</v>
+      </c>
+      <c r="H74">
+        <v>-0.1306895384884353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1006940403474211</v>
+        <v>0.1032544425707362</v>
       </c>
       <c r="C75">
-        <v>-0.04614832417577631</v>
+        <v>0.02062732675278774</v>
       </c>
       <c r="D75">
-        <v>-0.01591615660665646</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02562802637079963</v>
+      </c>
+      <c r="E75">
+        <v>-0.001713687949306978</v>
+      </c>
+      <c r="F75">
+        <v>-0.001247718450293459</v>
+      </c>
+      <c r="G75">
+        <v>0.001208584976179053</v>
+      </c>
+      <c r="H75">
+        <v>-0.1007603349367407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1342310681594325</v>
+        <v>0.1424952141658328</v>
       </c>
       <c r="C76">
-        <v>-0.07645242523898899</v>
+        <v>0.04853197762379187</v>
       </c>
       <c r="D76">
-        <v>-0.02563218579664899</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05332881047952281</v>
+      </c>
+      <c r="E76">
+        <v>0.01289230212234268</v>
+      </c>
+      <c r="F76">
+        <v>-0.03331369743082328</v>
+      </c>
+      <c r="G76">
+        <v>-0.02397593981919318</v>
+      </c>
+      <c r="H76">
+        <v>-0.2154218264839989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1182994461072256</v>
+        <v>0.1030273673103397</v>
       </c>
       <c r="C77">
-        <v>-0.006913974666215106</v>
+        <v>-0.02453518292765826</v>
       </c>
       <c r="D77">
-        <v>-0.08458203785759857</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03593619313849374</v>
+      </c>
+      <c r="E77">
+        <v>0.03603227101090677</v>
+      </c>
+      <c r="F77">
+        <v>-0.1007775014725224</v>
+      </c>
+      <c r="G77">
+        <v>-0.8151527963237232</v>
+      </c>
+      <c r="H77">
+        <v>0.345862242437796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1084678510505462</v>
+        <v>0.1522272509777463</v>
       </c>
       <c r="C78">
-        <v>-0.03425859569111014</v>
+        <v>0.02679574388504866</v>
       </c>
       <c r="D78">
-        <v>-0.09377429620649604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08148517126014959</v>
+      </c>
+      <c r="E78">
+        <v>0.05112773160394439</v>
+      </c>
+      <c r="F78">
+        <v>-0.05861126418577083</v>
+      </c>
+      <c r="G78">
+        <v>-0.05538044822318412</v>
+      </c>
+      <c r="H78">
+        <v>0.06147495717364016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1480814262653482</v>
+        <v>0.1481126121873155</v>
       </c>
       <c r="C79">
-        <v>-0.06401697875789265</v>
+        <v>0.02980600140726794</v>
       </c>
       <c r="D79">
-        <v>-0.02359629367128231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04063558415453623</v>
+      </c>
+      <c r="E79">
+        <v>-0.01579939571410293</v>
+      </c>
+      <c r="F79">
+        <v>-0.01765272142247605</v>
+      </c>
+      <c r="G79">
+        <v>-0.01804922980414269</v>
+      </c>
+      <c r="H79">
+        <v>-0.157111875480896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04113336306155237</v>
+        <v>0.04136457467115814</v>
       </c>
       <c r="C80">
-        <v>-0.01814488741588085</v>
+        <v>0.0104303948169267</v>
       </c>
       <c r="D80">
-        <v>-0.03416162641359174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01701750593943065</v>
+      </c>
+      <c r="E80">
+        <v>-0.03844766545279894</v>
+      </c>
+      <c r="F80">
+        <v>-0.001409278191471539</v>
+      </c>
+      <c r="G80">
+        <v>0.01888462161454007</v>
+      </c>
+      <c r="H80">
+        <v>-0.03980274306699751</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1235740730835128</v>
+        <v>0.1248359626900735</v>
       </c>
       <c r="C81">
-        <v>-0.0557137646502074</v>
+        <v>0.02979339364844638</v>
       </c>
       <c r="D81">
-        <v>-0.02943056653103845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03127775658169752</v>
+      </c>
+      <c r="E81">
+        <v>0.009878340644316641</v>
+      </c>
+      <c r="F81">
+        <v>-0.01075703131083392</v>
+      </c>
+      <c r="G81">
+        <v>0.01732214193617463</v>
+      </c>
+      <c r="H81">
+        <v>-0.1474788860666626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1338480268165153</v>
+        <v>0.1310346555153281</v>
       </c>
       <c r="C82">
-        <v>-0.06861941655632979</v>
+        <v>0.03982335943230808</v>
       </c>
       <c r="D82">
-        <v>-0.005904571666509047</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03860601919144135</v>
+      </c>
+      <c r="E82">
+        <v>-0.02277216501010663</v>
+      </c>
+      <c r="F82">
+        <v>-0.04196985724454185</v>
+      </c>
+      <c r="G82">
+        <v>0.003102196863603472</v>
+      </c>
+      <c r="H82">
+        <v>-0.2209636546784946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06571483203660561</v>
+        <v>0.08038347919741837</v>
       </c>
       <c r="C83">
-        <v>0.03044237925367766</v>
+        <v>-0.04104623683824225</v>
       </c>
       <c r="D83">
-        <v>-0.02246117552173763</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02052281376143365</v>
+      </c>
+      <c r="E83">
+        <v>0.02448057459070273</v>
+      </c>
+      <c r="F83">
+        <v>-0.03381330996236428</v>
+      </c>
+      <c r="G83">
+        <v>0.0647956599656901</v>
+      </c>
+      <c r="H83">
+        <v>0.0275325681209942</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02796360640084972</v>
+        <v>0.03566798466853104</v>
       </c>
       <c r="C84">
-        <v>-0.02938417828942578</v>
+        <v>0.01953886098250509</v>
       </c>
       <c r="D84">
-        <v>-0.03514240941136022</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03775197944724266</v>
+      </c>
+      <c r="E84">
+        <v>0.02037241558741443</v>
+      </c>
+      <c r="F84">
+        <v>0.04042728814192357</v>
+      </c>
+      <c r="G84">
+        <v>0.04702376976940512</v>
+      </c>
+      <c r="H84">
+        <v>-0.03144579598260431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1193036381880078</v>
+        <v>0.1216989547993671</v>
       </c>
       <c r="C85">
-        <v>-0.03826618678385493</v>
+        <v>0.01372868066629824</v>
       </c>
       <c r="D85">
-        <v>-0.0505153787237356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03984624960530875</v>
+      </c>
+      <c r="E85">
+        <v>0.01677888652371016</v>
+      </c>
+      <c r="F85">
+        <v>-0.03309581315620269</v>
+      </c>
+      <c r="G85">
+        <v>0.002222999670588968</v>
+      </c>
+      <c r="H85">
+        <v>-0.1464082626584402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05320626902467507</v>
+        <v>0.05681009831455512</v>
       </c>
       <c r="C86">
-        <v>-0.02130008974878245</v>
+        <v>0.007230025366058645</v>
       </c>
       <c r="D86">
-        <v>-0.0602443284038422</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03554199600223236</v>
+      </c>
+      <c r="E86">
+        <v>0.04043489871707647</v>
+      </c>
+      <c r="F86">
+        <v>-0.0259217792674276</v>
+      </c>
+      <c r="G86">
+        <v>0.03763922115557294</v>
+      </c>
+      <c r="H86">
+        <v>0.03910564706133024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1233094786228993</v>
+        <v>0.1253128910779152</v>
       </c>
       <c r="C87">
-        <v>-0.06660550933101676</v>
+        <v>0.03024596488735257</v>
       </c>
       <c r="D87">
-        <v>-0.0715362828611542</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07025564575443867</v>
+      </c>
+      <c r="E87">
+        <v>0.01687091770148495</v>
+      </c>
+      <c r="F87">
+        <v>-0.01813906423152139</v>
+      </c>
+      <c r="G87">
+        <v>-0.1282928744349009</v>
+      </c>
+      <c r="H87">
+        <v>0.07339123457447866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05450178006582308</v>
+        <v>0.06296793614919494</v>
       </c>
       <c r="C88">
-        <v>-0.02711170444865815</v>
+        <v>0.01603631034437059</v>
       </c>
       <c r="D88">
-        <v>-0.02613731431245609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03882598306946499</v>
+      </c>
+      <c r="E88">
+        <v>0.006845229934264558</v>
+      </c>
+      <c r="F88">
+        <v>-0.02157555616585328</v>
+      </c>
+      <c r="G88">
+        <v>-0.01710315982949111</v>
+      </c>
+      <c r="H88">
+        <v>-0.0385901542105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08660508504201339</v>
+        <v>0.1077405002278401</v>
       </c>
       <c r="C89">
-        <v>-0.07620509971639856</v>
+        <v>0.1262809062161341</v>
       </c>
       <c r="D89">
-        <v>0.3205467373917973</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.337616147339815</v>
+      </c>
+      <c r="E89">
+        <v>0.06093483689294965</v>
+      </c>
+      <c r="F89">
+        <v>-0.07721298248665638</v>
+      </c>
+      <c r="G89">
+        <v>0.02547311595985505</v>
+      </c>
+      <c r="H89">
+        <v>-0.009466442908332179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06770211686055849</v>
+        <v>0.08354487937491432</v>
       </c>
       <c r="C90">
-        <v>-0.06361628838250091</v>
+        <v>0.1031275607333982</v>
       </c>
       <c r="D90">
-        <v>0.2806007294879124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2776035587320833</v>
+      </c>
+      <c r="E90">
+        <v>0.05149493853989011</v>
+      </c>
+      <c r="F90">
+        <v>-0.03540794980189629</v>
+      </c>
+      <c r="G90">
+        <v>-0.02025985746717974</v>
+      </c>
+      <c r="H90">
+        <v>0.003804464774325992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09078830040662193</v>
+        <v>0.09150700619004951</v>
       </c>
       <c r="C91">
-        <v>-0.04923204381406823</v>
+        <v>0.0251545779752313</v>
       </c>
       <c r="D91">
-        <v>-0.0143529215076201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03359392867580333</v>
+      </c>
+      <c r="E91">
+        <v>0.007293876957139432</v>
+      </c>
+      <c r="F91">
+        <v>-0.001284702574961999</v>
+      </c>
+      <c r="G91">
+        <v>0.02161370747764651</v>
+      </c>
+      <c r="H91">
+        <v>-0.09258267939838614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07203160697213916</v>
+        <v>0.08628483006369059</v>
       </c>
       <c r="C92">
-        <v>-0.07831834593448815</v>
+        <v>0.1249268586542062</v>
       </c>
       <c r="D92">
-        <v>0.3406235476689747</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3307613256917611</v>
+      </c>
+      <c r="E92">
+        <v>0.04738671558441041</v>
+      </c>
+      <c r="F92">
+        <v>-0.03682604631899121</v>
+      </c>
+      <c r="G92">
+        <v>-0.01208472708280363</v>
+      </c>
+      <c r="H92">
+        <v>-0.01513745416378498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06386778306095507</v>
+        <v>0.08193917892681861</v>
       </c>
       <c r="C93">
-        <v>-0.06814502555482908</v>
+        <v>0.1140927609087771</v>
       </c>
       <c r="D93">
-        <v>0.2992961720214509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2924056892105335</v>
+      </c>
+      <c r="E93">
+        <v>0.02482588393475341</v>
+      </c>
+      <c r="F93">
+        <v>-0.03315552458585429</v>
+      </c>
+      <c r="G93">
+        <v>-0.01928585627706692</v>
+      </c>
+      <c r="H93">
+        <v>-0.006540765044169463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.135718320722361</v>
+        <v>0.1295824475156814</v>
       </c>
       <c r="C94">
-        <v>-0.04173316907433373</v>
+        <v>0.007825066497922232</v>
       </c>
       <c r="D94">
-        <v>-0.0445934227062626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.05020248038366916</v>
+      </c>
+      <c r="E94">
+        <v>-0.01865900583035871</v>
+      </c>
+      <c r="F94">
+        <v>-0.01185723848982431</v>
+      </c>
+      <c r="G94">
+        <v>0.04174115723218632</v>
+      </c>
+      <c r="H94">
+        <v>-0.1159310573317145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1220946460430251</v>
+        <v>0.1295540218262324</v>
       </c>
       <c r="C95">
-        <v>-0.01645964851278922</v>
+        <v>-0.009889141434137614</v>
       </c>
       <c r="D95">
-        <v>-0.05519258989050894</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0581067524095386</v>
+      </c>
+      <c r="E95">
+        <v>0.007563541521568021</v>
+      </c>
+      <c r="F95">
+        <v>-0.04562147888113115</v>
+      </c>
+      <c r="G95">
+        <v>-0.0138336595381175</v>
+      </c>
+      <c r="H95">
+        <v>0.09256485800486636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.222040901959726</v>
+        <v>0.1978352252187237</v>
       </c>
       <c r="C97">
-        <v>-0.0386962835702779</v>
+        <v>-0.008737676846855448</v>
       </c>
       <c r="D97">
-        <v>0.09573142395481524</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07356801659714217</v>
+      </c>
+      <c r="E97">
+        <v>-0.06689937657765999</v>
+      </c>
+      <c r="F97">
+        <v>0.9319287925375028</v>
+      </c>
+      <c r="G97">
+        <v>-0.08578459196148659</v>
+      </c>
+      <c r="H97">
+        <v>0.01272544041144625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2448082297664541</v>
+        <v>0.2737293303398877</v>
       </c>
       <c r="C98">
-        <v>-0.04966059112198402</v>
+        <v>0.008821924549571859</v>
       </c>
       <c r="D98">
-        <v>-0.01810551798780174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04569143629721895</v>
+      </c>
+      <c r="E98">
+        <v>-0.1921386990618459</v>
+      </c>
+      <c r="F98">
+        <v>-0.03192820016996695</v>
+      </c>
+      <c r="G98">
+        <v>0.3074455612889551</v>
+      </c>
+      <c r="H98">
+        <v>0.2029078532602673</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3880303136853276</v>
+        <v>0.2498830206907437</v>
       </c>
       <c r="C99">
-        <v>0.9009131587444237</v>
+        <v>-0.9182062031495536</v>
       </c>
       <c r="D99">
-        <v>0.07891744762313561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2401882382498382</v>
+      </c>
+      <c r="E99">
+        <v>0.07086179150029609</v>
+      </c>
+      <c r="F99">
+        <v>-0.07399263643649022</v>
+      </c>
+      <c r="G99">
+        <v>0.001294633680556815</v>
+      </c>
+      <c r="H99">
+        <v>-0.07775005542528823</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04547700173237627</v>
+        <v>0.04781263150981734</v>
       </c>
       <c r="C101">
-        <v>-0.02976113585461367</v>
+        <v>0.02171990431062351</v>
       </c>
       <c r="D101">
-        <v>-0.00293650803304823</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01222446817448561</v>
+      </c>
+      <c r="E101">
+        <v>0.0556323918470944</v>
+      </c>
+      <c r="F101">
+        <v>-0.01745943317145658</v>
+      </c>
+      <c r="G101">
+        <v>-0.01549124430961756</v>
+      </c>
+      <c r="H101">
+        <v>-0.06233979226982489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
